--- a/Output_testing/R1_201907/Country/HKD/MN/SINGAPORE_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SINGAPORE_201907_HKD_MN.xlsx
@@ -590,8 +590,10 @@
       <c r="G8" s="8" t="n">
         <v>40576.671069</v>
       </c>
-      <c r="H8" s="9" t="n">
-        <v>-0.03627220734340186</v>
+      <c r="H8" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="I8" s="9" t="n">
         <v>13.72945557424801</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/SINGAPORE_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SINGAPORE_201907_HKD_MN.xlsx
@@ -812,136 +812,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>11316.302704</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>18.46500757679292</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>14070.967957</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>23.05846240703941</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>16828.377596</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>24.33597722650646</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>10155.057051</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>24.06797921427113</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>11.50202095701156</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>10296.606586</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>16.80115171879781</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>10614.037778</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>17.39350070576734</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>12239.1552</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>17.69937716929264</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>8859.185387</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>20.99670033155489</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>37.67886576155184</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>3698.180895</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>6.034385967988314</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>3051.543166</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>5.000643423515475</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>4161.304516</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.01777630411654</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>3106.84612</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.363376440188047</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>41.19865200373367</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>4395.069013</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>7.171510408332107</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>3220.825331</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>5.278050525128047</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>3875.319452</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>5.604205479185724</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>2673.649277</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.336678848963271</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>22.68928041672471</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>2991.750538</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>4.881691290611864</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>2608.270179</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.274240411439057</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>3036.806997</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.391609678276645</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>2058.34677</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.878381975337474</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>19.67859897399589</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1584.610944</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.585637186683459</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>1485.63477</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.434548468827534</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>2641.505795</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.819953795550954</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1630.648316</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.864715833517598</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>21.18528410330482</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>2326.893417</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.796832384141442</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>2675.723912</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4.384778604074284</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2698.157003</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.901878657283898</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1496.735903</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.547336900397816</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-4.580870889117216</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>2043.598144</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>3.334574569089747</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1922.044845</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.149705047905284</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1918.340269</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.774164344290143</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>954.7692039999999</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.262849459229315</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-21.74519220286761</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1808.214248</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>2.950494579645959</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1999.875748</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.277248579836832</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1865.726435</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.698078039551679</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>899.733506</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.132412177700063</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-19.4959868391783</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1940.347694</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>3.166099017363531</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1651.396496</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.706186535176445</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1691.116922</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.445570445895746</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>842.448087</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.996642947960773</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-14.96552116331751</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>18883.549351</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>30.81261530055285</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>17722.69041</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>29.04263529129028</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>18194.392576</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>26.31140886004957</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>9515.807158</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>22.55292587087962</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-9.798114188495299</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1270,433 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>969.48036</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>36.62495039093416</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>986.6858109999999</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>41.00588604010147</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>1001.464115</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>40.29016456910867</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>539.88818</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>33.39743732061049</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>1.9042739518353</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>579.255496</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>21.88306713575503</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>398.835984</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>16.57530971487309</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>553.662475</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>22.27453974573019</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>528.590384</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>32.69855661206999</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>143.0845695519155</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>OTHER INORGANIC CHEMICALS; ORGANIC AND INORGANIC COMPOUNDS OF PRECIOUS METALS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>647.550822</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>24.46312242092108</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>594.1606829999999</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>24.6928505355864</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>507.314188</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>20.40988969710985</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>319.304867</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>19.75217216609256</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-4.661811113669911</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>48.204679</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>1.821072452654849</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>25.992637</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>1.08023354427636</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>29.136318</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>1.172190824988156</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>30.077541</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.860594151747483</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>72.33481019762311</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>COPPER</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>33.707269</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1.273390473778007</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>30.6922</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1.275543685222815</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>29.575955</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>1.189877976045655</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>22.491144</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>1.391300272602421</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>33.58096920209535</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>35.067608</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>1.324781250162433</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>36.482474</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>1.516182917223449</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>40.624996</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>1.634394832469241</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>22.213868</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.374148002607346</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-2.071620306835853</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>14.29329</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.5399707500760875</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>18.592981</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.7727096625206986</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>27.67838</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>1.113536140240358</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>19.62438</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.213962493133008</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>28.07889360879507</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>17.072951</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.6449805578339408</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>18.199612</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.7563615563597713</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>19.118022</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.7691421400714294</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>13.084307</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.8093941284584618</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>69.68286751611585</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>12.28873</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.4642426450161242</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>16.306508</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.6776856435001506</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>35.348226</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>1.422103719378947</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>11.958977</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.7397813094854615</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>13.5416665677681</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>5.687409</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.2148584758106419</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>34.906817</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.45069985193562</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>56.964393</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>2.291749383900173</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>11.63014</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.7194394803752232</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-31.66190029338609</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>284.440323</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>10.74556344705765</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>245.349612</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>10.19653684840018</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>184.742181</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>7.432410970957318</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>97.69192200000001</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>6.043214062817545</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-12.07129139953</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1728,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>11303.359531</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>19.27648479027361</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>14055.678349</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>23.97892256928289</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>16816.011382</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>25.22480906440213</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>10149.971824</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>25.01430392537656</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>11.55436885263863</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>10291.585054</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>17.55102827766881</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>10600.1568</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>18.08381871142785</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>12237.439926</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>18.35673624132193</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>8858.907797</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>21.83251499842253</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>37.70931196191734</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>3693.672786</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>6.299103119236752</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>3042.150621</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>5.189894957310599</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>4156.943076</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.235610395454982</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>3106.028787</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>7.654715641207348</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>41.29567594516823</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>4395.069013</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>7.495247828660556</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>3220.825331</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>5.494713190183997</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>3875.319452</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>5.813161695697971</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>2673.649277</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.589129188181802</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>22.68928041672471</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1584.610944</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.702358416251735</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1454.59477</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.481531982552474</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>2641.46965</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.962328881507838</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1630.429636</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.018145385133935</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>21.17228733497425</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>2412.495042</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>4.114212580444152</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>2209.434195</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.769284567300884</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>2483.144522</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.724833732796656</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1529.756386</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.770039152296829</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>1.817849324820253</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>2318.964212</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>3.954707292040999</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>2671.536976</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>4.557629784765087</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>2696.09736</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>4.044273019334155</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1495.46421</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.685527103632987</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-4.590821473253726</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>2042.377388</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>3.483022595875771</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1919.930769</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>3.275393055043135</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1911.415218</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.867212849799353</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>954.51939</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.352384670435026</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-21.34457385453449</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>1808.183441</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>3.08363371994569</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1999.766399</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>3.411592272363452</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1865.679227</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.798606709250405</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>899.71952</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.217332019351812</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-19.49563885250452</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1939.089742</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>3.30687826182343</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1650.25269</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.815323493517204</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1690.169018</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.535333129665579</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>841.923493</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.074895428381303</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-14.96800395570048</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>16848.667444</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>28.7333231177785</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>15792.478373</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>26.94189541625243</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>16290.884681</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>24.437094280769</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>8436.300749</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>20.79101248757987</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-11.07485676278127</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2186,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>175396.970863</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>67.02376663528452</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>191145.31784</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>66.34530910644129</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>207394.543748</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>66.02262614607409</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>109576.712515</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>67.14205637602203</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-3.784492433555131</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>16413.564983</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>6.272052154953922</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>23693.687884</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>8.22392650941809</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>25645.12228</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>8.163948241666908</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>12505.710198</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>7.662751326121124</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-14.57569930076338</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>4171.274272</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1.593952917218085</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>5848.647553</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>2.030027908312256</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>7919.848053</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>2.521229139819038</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>4567.950298</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>2.79896676393899</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-1.186322438931209</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>7182.523035</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>2.744629769726239</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>10675.569683</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>3.705421500823033</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>9513.622584000001</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>3.0285962967352</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>4491.790339</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>2.752300495683556</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-19.49043713275945</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>7309.937817</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>2.793318287963671</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>8107.608041</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.814098549064485</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>7777.733157</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.475987840415341</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>3393.384693</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.07926320413881</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-19.41751213312986</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>4311.980526</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.647720454284545</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>3882.000066</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.347417228109046</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>4120.188134</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.311633545929271</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>2711.756819</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.661602406573715</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>8.83426220221104</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>8090.982551</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>3.09177589373511</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>5326.973515</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.848958208593602</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>6290.278193</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.002466786184419</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>2669.387225</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.635640853213664</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-26.76704206520357</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>4151.913429</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.58655463310457</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>4413.677236</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.531958950538338</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>5045.835985</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.606307170919848</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>2454.98129</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.504265718436253</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-11.97203699125126</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>2495.033331</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.9534174444484492</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>2702.285181</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.9379457872845829</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>4259.651849</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.356030860101508</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>2149.149584</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.316870338756323</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-12.15872286976171</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>2822.887228</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.07869898708216</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>2862.257346</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.9934710957529582</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>2908.276073</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.9258296791576183</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>1526.950818</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.9356241445145982</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-8.588401504202059</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>29346.62611</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>11.21411282219874</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>29448.731678</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>10.22146515566232</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>33251.368178</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>10.58534429299676</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>17153.531676</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>10.51065837260095</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-11.69282550008158</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
